--- a/Code/Results/Cases/Case_1_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9598487166284981</v>
+        <v>1.017651052793478</v>
       </c>
       <c r="D2">
-        <v>1.040172902911294</v>
+        <v>1.050412519151949</v>
       </c>
       <c r="E2">
-        <v>0.9713689502452909</v>
+        <v>1.018967393367267</v>
       </c>
       <c r="F2">
-        <v>1.030431217081026</v>
+        <v>1.053235327011146</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052167670363167</v>
+        <v>1.0391899586383</v>
       </c>
       <c r="J2">
-        <v>0.9833004547218231</v>
+        <v>1.022863957725663</v>
       </c>
       <c r="K2">
-        <v>1.051099559771783</v>
+        <v>1.053166867595929</v>
       </c>
       <c r="L2">
-        <v>0.9832421168027127</v>
+        <v>1.021812037319454</v>
       </c>
       <c r="M2">
-        <v>1.041482271278651</v>
+        <v>1.055981855654603</v>
       </c>
       <c r="N2">
-        <v>0.9974917821683853</v>
+        <v>1.011547502260672</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9672951471733118</v>
+        <v>1.019144097865797</v>
       </c>
       <c r="D3">
-        <v>1.043711051970402</v>
+        <v>1.051123604522355</v>
       </c>
       <c r="E3">
-        <v>0.9775170775351625</v>
+        <v>1.020251949654212</v>
       </c>
       <c r="F3">
-        <v>1.035140737057312</v>
+        <v>1.054209255894751</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053316565192459</v>
+        <v>1.039346313403227</v>
       </c>
       <c r="J3">
-        <v>0.9887189030846137</v>
+        <v>1.023990130384912</v>
       </c>
       <c r="K3">
-        <v>1.053813597793639</v>
+        <v>1.053690655524277</v>
       </c>
       <c r="L3">
-        <v>0.9884459504718898</v>
+        <v>1.022901200690109</v>
       </c>
       <c r="M3">
-        <v>1.045342893936793</v>
+        <v>1.056768376520259</v>
       </c>
       <c r="N3">
-        <v>0.9994195308259843</v>
+        <v>1.011935495136237</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9719695379643591</v>
+        <v>1.020109184450622</v>
       </c>
       <c r="D4">
-        <v>1.045942107119821</v>
+        <v>1.051582789908887</v>
       </c>
       <c r="E4">
-        <v>0.9813840754494908</v>
+        <v>1.021082501553459</v>
       </c>
       <c r="F4">
-        <v>1.038109144554793</v>
+        <v>1.054838529608173</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054028348373059</v>
+        <v>1.039445795840487</v>
       </c>
       <c r="J4">
-        <v>0.9921184989430913</v>
+        <v>1.024717506663779</v>
       </c>
       <c r="K4">
-        <v>1.055515953464973</v>
+        <v>1.054027975706567</v>
       </c>
       <c r="L4">
-        <v>0.9917124951206238</v>
+        <v>1.023604785816203</v>
       </c>
       <c r="M4">
-        <v>1.047768393745022</v>
+        <v>1.057275768881446</v>
       </c>
       <c r="N4">
-        <v>1.000627139226707</v>
+        <v>1.012185687314277</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9739021788392256</v>
+        <v>1.020514671360561</v>
       </c>
       <c r="D5">
-        <v>1.046866606268985</v>
+        <v>1.051775607591244</v>
       </c>
       <c r="E5">
-        <v>0.9829846014545638</v>
+        <v>1.021431516962199</v>
       </c>
       <c r="F5">
-        <v>1.039338985230365</v>
+        <v>1.055102856251585</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054320234565109</v>
+        <v>1.039487213748191</v>
       </c>
       <c r="J5">
-        <v>0.9935235633177899</v>
+        <v>1.025022981505681</v>
       </c>
       <c r="K5">
-        <v>1.056219213056295</v>
+        <v>1.054169400833127</v>
       </c>
       <c r="L5">
-        <v>0.9930629404736077</v>
+        <v>1.023900295969128</v>
       </c>
       <c r="M5">
-        <v>1.048771426005711</v>
+        <v>1.057488709152601</v>
       </c>
       <c r="N5">
-        <v>1.001125767788886</v>
+        <v>1.01229066251524</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9742248281681163</v>
+        <v>1.020582740794117</v>
       </c>
       <c r="D6">
-        <v>1.047021060670005</v>
+        <v>1.051807969396715</v>
       </c>
       <c r="E6">
-        <v>0.98325190200622</v>
+        <v>1.021490109617275</v>
       </c>
       <c r="F6">
-        <v>1.039544443668203</v>
+        <v>1.055147224985467</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054368818884476</v>
+        <v>1.039494144275629</v>
       </c>
       <c r="J6">
-        <v>0.9937581027952878</v>
+        <v>1.025074253796473</v>
       </c>
       <c r="K6">
-        <v>1.056336578689603</v>
+        <v>1.054193124202926</v>
       </c>
       <c r="L6">
-        <v>0.9932883842126714</v>
+        <v>1.023949897311929</v>
       </c>
       <c r="M6">
-        <v>1.048938883411325</v>
+        <v>1.057524441241256</v>
       </c>
       <c r="N6">
-        <v>1.001208972012608</v>
+        <v>1.012308276301725</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9719954871004965</v>
+        <v>1.020114603503061</v>
       </c>
       <c r="D7">
-        <v>1.045954512438217</v>
+        <v>1.051585367228046</v>
       </c>
       <c r="E7">
-        <v>0.9814055587593881</v>
+        <v>1.021087165692105</v>
       </c>
       <c r="F7">
-        <v>1.038125647731869</v>
+        <v>1.054842062417042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054032277156515</v>
+        <v>1.039446350858096</v>
       </c>
       <c r="J7">
-        <v>0.992137366551839</v>
+        <v>1.024721589661882</v>
       </c>
       <c r="K7">
-        <v>1.055525398622567</v>
+        <v>1.054029866945893</v>
       </c>
       <c r="L7">
-        <v>0.9917306278345183</v>
+        <v>1.023608735520207</v>
       </c>
       <c r="M7">
-        <v>1.047781860804176</v>
+        <v>1.057278615642505</v>
       </c>
       <c r="N7">
-        <v>1.000633836891271</v>
+        <v>1.012187090803995</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9623963310760471</v>
+        <v>1.01815584849633</v>
       </c>
       <c r="D8">
-        <v>1.041381057341245</v>
+        <v>1.050653027166143</v>
       </c>
       <c r="E8">
-        <v>0.9734707016564733</v>
+        <v>1.019401651147646</v>
       </c>
       <c r="F8">
-        <v>1.032039690680423</v>
+        <v>1.053564662664255</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052562634564805</v>
+        <v>1.039243149281764</v>
       </c>
       <c r="J8">
-        <v>0.9851545601786175</v>
+        <v>1.02324483196542</v>
       </c>
       <c r="K8">
-        <v>1.05202821854078</v>
+        <v>1.053344216708644</v>
       </c>
       <c r="L8">
-        <v>0.9850224385100563</v>
+        <v>1.022180371537683</v>
       </c>
       <c r="M8">
-        <v>1.042802472370571</v>
+        <v>1.05624798339046</v>
       </c>
       <c r="N8">
-        <v>0.9981518063724125</v>
+        <v>1.011678806329567</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9442794464909358</v>
+        <v>1.014696190675046</v>
       </c>
       <c r="D9">
-        <v>1.032848645873826</v>
+        <v>1.049002974042252</v>
       </c>
       <c r="E9">
-        <v>0.958562927044545</v>
+        <v>1.016426415229034</v>
       </c>
       <c r="F9">
-        <v>1.020669802651797</v>
+        <v>1.051306601009455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049719588538313</v>
+        <v>1.038872142799558</v>
       </c>
       <c r="J9">
-        <v>0.9719658301474688</v>
+        <v>1.020632168221781</v>
       </c>
       <c r="K9">
-        <v>1.04543034580765</v>
+        <v>1.052123709836175</v>
       </c>
       <c r="L9">
-        <v>0.9723660819512937</v>
+        <v>1.019654195121091</v>
       </c>
       <c r="M9">
-        <v>1.033436197547873</v>
+        <v>1.054420042063081</v>
       </c>
       <c r="N9">
-        <v>0.9934499919007419</v>
+        <v>1.010776449159257</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9312356699310934</v>
+        <v>1.012383870351809</v>
       </c>
       <c r="D10">
-        <v>1.026801006971297</v>
+        <v>1.047898134341725</v>
       </c>
       <c r="E10">
-        <v>0.9478860854604317</v>
+        <v>1.014439145923316</v>
       </c>
       <c r="F10">
-        <v>1.01259195342261</v>
+        <v>1.049796368168493</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0476365131275</v>
+        <v>1.038616104521948</v>
       </c>
       <c r="J10">
-        <v>0.9624706623118082</v>
+        <v>1.018883070643067</v>
       </c>
       <c r="K10">
-        <v>1.040702653926129</v>
+        <v>1.051301754044857</v>
       </c>
       <c r="L10">
-        <v>0.9632646474118309</v>
+        <v>1.017963589989448</v>
       </c>
       <c r="M10">
-        <v>1.02673751818462</v>
+        <v>1.053193387465066</v>
       </c>
       <c r="N10">
-        <v>0.9900576336703674</v>
+        <v>1.010170278986373</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9253166639181503</v>
+        <v>1.011381114852248</v>
       </c>
       <c r="D11">
-        <v>1.024086464023008</v>
+        <v>1.04741858651621</v>
       </c>
       <c r="E11">
-        <v>0.943057180889931</v>
+        <v>1.013577668297082</v>
       </c>
       <c r="F11">
-        <v>1.008959477655608</v>
+        <v>1.049141251169549</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04668547984247</v>
+        <v>1.03850317267662</v>
       </c>
       <c r="J11">
-        <v>0.9581638943499966</v>
+        <v>1.018123885818309</v>
       </c>
       <c r="K11">
-        <v>1.038568004481764</v>
+        <v>1.050943869304699</v>
       </c>
       <c r="L11">
-        <v>0.9591392489305856</v>
+        <v>1.017229935305094</v>
       </c>
       <c r="M11">
-        <v>1.023714386419747</v>
+        <v>1.052660311941882</v>
       </c>
       <c r="N11">
-        <v>0.9885177513332729</v>
+        <v>1.009906687861509</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9230732011583727</v>
+        <v>1.011008411925949</v>
       </c>
       <c r="D12">
-        <v>1.023062721900544</v>
+        <v>1.047240288903112</v>
       </c>
       <c r="E12">
-        <v>0.9412295603572315</v>
+        <v>1.013257524120045</v>
       </c>
       <c r="F12">
-        <v>1.00758834988795</v>
+        <v>1.048897733214643</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046324411960055</v>
+        <v>1.038460914289505</v>
       </c>
       <c r="J12">
-        <v>0.956531985400882</v>
+        <v>1.017841612157929</v>
       </c>
       <c r="K12">
-        <v>1.037761024686121</v>
+        <v>1.050810638184165</v>
       </c>
       <c r="L12">
-        <v>0.9575765116176319</v>
+        <v>1.016957175483936</v>
       </c>
       <c r="M12">
-        <v>1.022571598938811</v>
+        <v>1.052462013031343</v>
       </c>
       <c r="N12">
-        <v>0.9879341349665623</v>
+        <v>1.009808608861123</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9235565359512131</v>
+        <v>1.011088368738128</v>
       </c>
       <c r="D13">
-        <v>1.02328303478499</v>
+        <v>1.047278542141905</v>
       </c>
       <c r="E13">
-        <v>0.9416231808583048</v>
+        <v>1.01332620315867</v>
       </c>
       <c r="F13">
-        <v>1.007883479230343</v>
+        <v>1.048949976738828</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04640222347199</v>
+        <v>1.03846999290883</v>
       </c>
       <c r="J13">
-        <v>0.9568835417700592</v>
+        <v>1.017902173522154</v>
       </c>
       <c r="K13">
-        <v>1.037934777711162</v>
+        <v>1.050839230149782</v>
       </c>
       <c r="L13">
-        <v>0.9579131458699263</v>
+        <v>1.017015694697061</v>
       </c>
       <c r="M13">
-        <v>1.022817654839845</v>
+        <v>1.052504562011264</v>
       </c>
       <c r="N13">
-        <v>0.9880598662902803</v>
+        <v>1.009829654842074</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9251321603703335</v>
+        <v>1.011350311954206</v>
       </c>
       <c r="D14">
-        <v>1.024002162595118</v>
+        <v>1.04740385189384</v>
       </c>
       <c r="E14">
-        <v>0.9429068208425045</v>
+        <v>1.013551208237666</v>
       </c>
       <c r="F14">
-        <v>1.00884659597169</v>
+        <v>1.049121125546831</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046655795977188</v>
+        <v>1.038499685919529</v>
       </c>
       <c r="J14">
-        <v>0.9580296746322438</v>
+        <v>1.018100558708424</v>
       </c>
       <c r="K14">
-        <v>1.038501592196954</v>
+        <v>1.050932862435901</v>
       </c>
       <c r="L14">
-        <v>0.959010709119085</v>
+        <v>1.017207393981431</v>
       </c>
       <c r="M14">
-        <v>1.023620337469985</v>
+        <v>1.052643926436049</v>
       </c>
       <c r="N14">
-        <v>0.9884697528902412</v>
+        <v>1.009898584090169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9260968726586998</v>
+        <v>1.011511672429045</v>
       </c>
       <c r="D15">
-        <v>1.024443161878111</v>
+        <v>1.047481036543854</v>
       </c>
       <c r="E15">
-        <v>0.9436931170890599</v>
+        <v>1.013689820827011</v>
       </c>
       <c r="F15">
-        <v>1.009437054599105</v>
+        <v>1.049226552296349</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046810981033067</v>
+        <v>1.038517939618567</v>
       </c>
       <c r="J15">
-        <v>0.9587314885387621</v>
+        <v>1.01822275326769</v>
       </c>
       <c r="K15">
-        <v>1.038848930426644</v>
+        <v>1.050990513035749</v>
       </c>
       <c r="L15">
-        <v>0.9596828420533156</v>
+        <v>1.017325473229727</v>
       </c>
       <c r="M15">
-        <v>1.024112218340784</v>
+        <v>1.052729754859872</v>
       </c>
       <c r="N15">
-        <v>0.9887207243449202</v>
+        <v>1.009941031153553</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9316224430791428</v>
+        <v>1.012450387470904</v>
       </c>
       <c r="D16">
-        <v>1.026979056679637</v>
+        <v>1.047929936213691</v>
       </c>
       <c r="E16">
-        <v>0.9482019788633385</v>
+        <v>1.014496298240564</v>
       </c>
       <c r="F16">
-        <v>1.012830056468481</v>
+        <v>1.049839821207071</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047698560132607</v>
+        <v>1.038623555905295</v>
       </c>
       <c r="J16">
-        <v>0.9627521397945159</v>
+        <v>1.018933416502375</v>
       </c>
       <c r="K16">
-        <v>1.04084240304163</v>
+        <v>1.051325464080678</v>
       </c>
       <c r="L16">
-        <v>0.9635343310405498</v>
+        <v>1.018012245796871</v>
       </c>
       <c r="M16">
-        <v>1.026935451822072</v>
+        <v>1.053228725220302</v>
       </c>
       <c r="N16">
-        <v>0.9901582552636988</v>
+        <v>1.010187748995121</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9350131758029501</v>
+        <v>1.013038809418879</v>
       </c>
       <c r="D17">
-        <v>1.028543395040907</v>
+        <v>1.048211212459247</v>
       </c>
       <c r="E17">
-        <v>0.9509731623445069</v>
+        <v>1.015001914264137</v>
       </c>
       <c r="F17">
-        <v>1.014921244937987</v>
+        <v>1.050224192551607</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048241887734302</v>
+        <v>1.03868925309947</v>
       </c>
       <c r="J17">
-        <v>0.9652200136769714</v>
+        <v>1.019378706829916</v>
       </c>
       <c r="K17">
-        <v>1.042068803696144</v>
+        <v>1.051535041624098</v>
       </c>
       <c r="L17">
-        <v>0.9658991181177556</v>
+        <v>1.018442604629894</v>
       </c>
       <c r="M17">
-        <v>1.028672612798212</v>
+        <v>1.053541199403931</v>
       </c>
       <c r="N17">
-        <v>0.9910403332947223</v>
+        <v>1.010342208580642</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.936965099369605</v>
+        <v>1.01338188131379</v>
       </c>
       <c r="D18">
-        <v>1.029446672789335</v>
+        <v>1.048375165678792</v>
       </c>
       <c r="E18">
-        <v>0.9525699194137829</v>
+        <v>1.015296737705221</v>
       </c>
       <c r="F18">
-        <v>1.016128121800927</v>
+        <v>1.050448276478565</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048554101794511</v>
+        <v>1.038727373873138</v>
       </c>
       <c r="J18">
-        <v>0.9666408507232028</v>
+        <v>1.019638262529798</v>
       </c>
       <c r="K18">
-        <v>1.042775765599429</v>
+        <v>1.051657094378446</v>
       </c>
       <c r="L18">
-        <v>0.9672608635748048</v>
+        <v>1.018693470556472</v>
       </c>
       <c r="M18">
-        <v>1.029674151265928</v>
+        <v>1.053723274587201</v>
       </c>
       <c r="N18">
-        <v>0.9915480593319742</v>
+        <v>1.010432194751889</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9376263904229611</v>
+        <v>1.01349883568724</v>
       </c>
       <c r="D19">
-        <v>1.029753140477718</v>
+        <v>1.048431050759282</v>
       </c>
       <c r="E19">
-        <v>0.9531111288133514</v>
+        <v>1.01539724915276</v>
       </c>
       <c r="F19">
-        <v>1.016537497398368</v>
+        <v>1.050524664124461</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048659774131153</v>
+        <v>1.038740338273051</v>
       </c>
       <c r="J19">
-        <v>0.9671222392215215</v>
+        <v>1.019726734881196</v>
       </c>
       <c r="K19">
-        <v>1.043015426753588</v>
+        <v>1.051698678951648</v>
       </c>
       <c r="L19">
-        <v>0.9677222745806799</v>
+        <v>1.018778983218298</v>
       </c>
       <c r="M19">
-        <v>1.030013703437674</v>
+        <v>1.053785326064474</v>
       </c>
       <c r="N19">
-        <v>0.9917200590534753</v>
+        <v>1.010462859536628</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9346520826364477</v>
+        <v>1.01297569233979</v>
       </c>
       <c r="D20">
-        <v>1.028376512372817</v>
+        <v>1.048181045606488</v>
       </c>
       <c r="E20">
-        <v>0.950677891370682</v>
+        <v>1.014947676200743</v>
       </c>
       <c r="F20">
-        <v>1.014698223336669</v>
+        <v>1.050182964882818</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048184082966177</v>
+        <v>1.038682225026677</v>
       </c>
       <c r="J20">
-        <v>0.964957180666466</v>
+        <v>1.019330949497237</v>
       </c>
       <c r="K20">
-        <v>1.041938095294386</v>
+        <v>1.051512575622158</v>
       </c>
       <c r="L20">
-        <v>0.9656472369261511</v>
+        <v>1.018396447283995</v>
       </c>
       <c r="M20">
-        <v>1.028487453809132</v>
+        <v>1.053507693102779</v>
       </c>
       <c r="N20">
-        <v>0.9909464020695155</v>
+        <v>1.010325647661355</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9246694536477653</v>
+        <v>1.01127318275996</v>
       </c>
       <c r="D21">
-        <v>1.023790832557821</v>
+        <v>1.047366956050272</v>
       </c>
       <c r="E21">
-        <v>0.9425297845555166</v>
+        <v>1.013484954124866</v>
       </c>
       <c r="F21">
-        <v>1.008563599756043</v>
+        <v>1.049070731424638</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04658134467611</v>
+        <v>1.038490950639662</v>
       </c>
       <c r="J21">
-        <v>0.9576930803126158</v>
+        <v>1.018042146955803</v>
       </c>
       <c r="K21">
-        <v>1.03833507604824</v>
+        <v>1.050905298258043</v>
       </c>
       <c r="L21">
-        <v>0.9586883660915386</v>
+        <v>1.017150950206742</v>
       </c>
       <c r="M21">
-        <v>1.023384528300694</v>
+        <v>1.052602895130223</v>
       </c>
       <c r="N21">
-        <v>0.9883493811906159</v>
+        <v>1.009878290839852</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9181307906891477</v>
+        <v>1.010201384087388</v>
       </c>
       <c r="D22">
-        <v>1.020817691685944</v>
+        <v>1.046854109238528</v>
       </c>
       <c r="E22">
-        <v>0.9372084924943482</v>
+        <v>1.012564394186409</v>
       </c>
       <c r="F22">
-        <v>1.004579053188402</v>
+        <v>1.048370393505714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045528180612287</v>
+        <v>1.038368892472737</v>
       </c>
       <c r="J22">
-        <v>0.9529379346057988</v>
+        <v>1.017230210631401</v>
       </c>
       <c r="K22">
-        <v>1.035987727161645</v>
+        <v>1.050521761483553</v>
       </c>
       <c r="L22">
-        <v>0.9541356644349293</v>
+        <v>1.016366420184726</v>
       </c>
       <c r="M22">
-        <v>1.020060340667672</v>
+        <v>1.052032328728962</v>
       </c>
       <c r="N22">
-        <v>0.9866486260913953</v>
+        <v>1.009596038087464</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9216234668226158</v>
+        <v>1.01076969698784</v>
       </c>
       <c r="D23">
-        <v>1.0224027159146</v>
+        <v>1.047126073550252</v>
       </c>
       <c r="E23">
-        <v>0.9400493308231755</v>
+        <v>1.013052486749304</v>
       </c>
       <c r="F23">
-        <v>1.006704017918419</v>
+        <v>1.048741754313265</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046090954911234</v>
+        <v>1.038433768140426</v>
       </c>
       <c r="J23">
-        <v>0.9554775969383743</v>
+        <v>1.017660788563112</v>
       </c>
       <c r="K23">
-        <v>1.037240213766003</v>
+        <v>1.050725244529458</v>
       </c>
       <c r="L23">
-        <v>0.9565669457239121</v>
+        <v>1.016782452475188</v>
       </c>
       <c r="M23">
-        <v>1.021834064509314</v>
+        <v>1.052334956927773</v>
       </c>
       <c r="N23">
-        <v>0.9875570267796523</v>
+        <v>1.009745759322595</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.934815324619926</v>
+        <v>1.013004212678254</v>
       </c>
       <c r="D24">
-        <v>1.028451947742621</v>
+        <v>1.04819467705047</v>
       </c>
       <c r="E24">
-        <v>0.9508113720439185</v>
+        <v>1.014972184337161</v>
       </c>
       <c r="F24">
-        <v>1.014799036875646</v>
+        <v>1.050201594242519</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048210216943635</v>
+        <v>1.038685401326194</v>
       </c>
       <c r="J24">
-        <v>0.9650760009587639</v>
+        <v>1.019352529519974</v>
       </c>
       <c r="K24">
-        <v>1.04199718261369</v>
+        <v>1.05152272762969</v>
       </c>
       <c r="L24">
-        <v>0.965761105370108</v>
+        <v>1.018417304281278</v>
       </c>
       <c r="M24">
-        <v>1.028571155292021</v>
+        <v>1.053522833732275</v>
       </c>
       <c r="N24">
-        <v>0.99098886641226</v>
+        <v>1.01033313116018</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9491206129423533</v>
+        <v>1.015591598819808</v>
       </c>
       <c r="D25">
-        <v>1.035114547470806</v>
+        <v>1.049430399293832</v>
       </c>
       <c r="E25">
-        <v>0.9625377454879428</v>
+        <v>1.017196227450191</v>
       </c>
       <c r="F25">
-        <v>1.023691857116911</v>
+        <v>1.051891215081676</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050486281456584</v>
+        <v>1.038969590313986</v>
       </c>
       <c r="J25">
-        <v>0.9754905717227694</v>
+        <v>1.021308872043597</v>
       </c>
       <c r="K25">
-        <v>1.047191157377504</v>
+        <v>1.052440699353794</v>
       </c>
       <c r="L25">
-        <v>0.9757468558238627</v>
+        <v>1.020308394311141</v>
       </c>
       <c r="M25">
-        <v>1.035933192318573</v>
+        <v>1.054894018354295</v>
       </c>
       <c r="N25">
-        <v>0.9947079746792921</v>
+        <v>1.011010533486326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017651052793478</v>
+        <v>0.9598487166284972</v>
       </c>
       <c r="D2">
-        <v>1.050412519151949</v>
+        <v>1.040172902911293</v>
       </c>
       <c r="E2">
-        <v>1.018967393367267</v>
+        <v>0.9713689502452898</v>
       </c>
       <c r="F2">
-        <v>1.053235327011146</v>
+        <v>1.030431217081025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0391899586383</v>
+        <v>1.052167670363167</v>
       </c>
       <c r="J2">
-        <v>1.022863957725663</v>
+        <v>0.9833004547218223</v>
       </c>
       <c r="K2">
-        <v>1.053166867595929</v>
+        <v>1.051099559771782</v>
       </c>
       <c r="L2">
-        <v>1.021812037319454</v>
+        <v>0.9832421168027117</v>
       </c>
       <c r="M2">
-        <v>1.055981855654603</v>
+        <v>1.04148227127865</v>
       </c>
       <c r="N2">
-        <v>1.011547502260672</v>
+        <v>0.997491782168385</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019144097865797</v>
+        <v>0.9672951471733109</v>
       </c>
       <c r="D3">
-        <v>1.051123604522355</v>
+        <v>1.043711051970402</v>
       </c>
       <c r="E3">
-        <v>1.020251949654212</v>
+        <v>0.9775170775351614</v>
       </c>
       <c r="F3">
-        <v>1.054209255894751</v>
+        <v>1.035140737057311</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039346313403227</v>
+        <v>1.053316565192459</v>
       </c>
       <c r="J3">
-        <v>1.023990130384912</v>
+        <v>0.9887189030846127</v>
       </c>
       <c r="K3">
-        <v>1.053690655524277</v>
+        <v>1.053813597793639</v>
       </c>
       <c r="L3">
-        <v>1.022901200690109</v>
+        <v>0.9884459504718885</v>
       </c>
       <c r="M3">
-        <v>1.056768376520259</v>
+        <v>1.045342893936793</v>
       </c>
       <c r="N3">
-        <v>1.011935495136237</v>
+        <v>0.999419530825984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020109184450622</v>
+        <v>0.9719695379643597</v>
       </c>
       <c r="D4">
-        <v>1.051582789908887</v>
+        <v>1.04594210711982</v>
       </c>
       <c r="E4">
-        <v>1.021082501553459</v>
+        <v>0.9813840754494914</v>
       </c>
       <c r="F4">
-        <v>1.054838529608173</v>
+        <v>1.038109144554793</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039445795840487</v>
+        <v>1.054028348373059</v>
       </c>
       <c r="J4">
-        <v>1.024717506663779</v>
+        <v>0.9921184989430919</v>
       </c>
       <c r="K4">
-        <v>1.054027975706567</v>
+        <v>1.055515953464972</v>
       </c>
       <c r="L4">
-        <v>1.023604785816203</v>
+        <v>0.9917124951206242</v>
       </c>
       <c r="M4">
-        <v>1.057275768881446</v>
+        <v>1.047768393745022</v>
       </c>
       <c r="N4">
-        <v>1.012185687314277</v>
+        <v>1.000627139226707</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020514671360561</v>
+        <v>0.9739021788392251</v>
       </c>
       <c r="D5">
-        <v>1.051775607591244</v>
+        <v>1.046866606268985</v>
       </c>
       <c r="E5">
-        <v>1.021431516962199</v>
+        <v>0.9829846014545632</v>
       </c>
       <c r="F5">
-        <v>1.055102856251585</v>
+        <v>1.039338985230365</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039487213748191</v>
+        <v>1.054320234565109</v>
       </c>
       <c r="J5">
-        <v>1.025022981505681</v>
+        <v>0.9935235633177893</v>
       </c>
       <c r="K5">
-        <v>1.054169400833127</v>
+        <v>1.056219213056295</v>
       </c>
       <c r="L5">
-        <v>1.023900295969128</v>
+        <v>0.9930629404736071</v>
       </c>
       <c r="M5">
-        <v>1.057488709152601</v>
+        <v>1.048771426005711</v>
       </c>
       <c r="N5">
-        <v>1.01229066251524</v>
+        <v>1.001125767788885</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020582740794117</v>
+        <v>0.9742248281681168</v>
       </c>
       <c r="D6">
-        <v>1.051807969396715</v>
+        <v>1.047021060670006</v>
       </c>
       <c r="E6">
-        <v>1.021490109617275</v>
+        <v>0.9832519020062206</v>
       </c>
       <c r="F6">
-        <v>1.055147224985467</v>
+        <v>1.039544443668204</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039494144275629</v>
+        <v>1.054368818884476</v>
       </c>
       <c r="J6">
-        <v>1.025074253796473</v>
+        <v>0.9937581027952882</v>
       </c>
       <c r="K6">
-        <v>1.054193124202926</v>
+        <v>1.056336578689603</v>
       </c>
       <c r="L6">
-        <v>1.023949897311929</v>
+        <v>0.993288384212672</v>
       </c>
       <c r="M6">
-        <v>1.057524441241256</v>
+        <v>1.048938883411325</v>
       </c>
       <c r="N6">
-        <v>1.012308276301725</v>
+        <v>1.001208972012608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020114603503061</v>
+        <v>0.9719954871004959</v>
       </c>
       <c r="D7">
-        <v>1.051585367228046</v>
+        <v>1.045954512438216</v>
       </c>
       <c r="E7">
-        <v>1.021087165692105</v>
+        <v>0.9814055587593875</v>
       </c>
       <c r="F7">
-        <v>1.054842062417042</v>
+        <v>1.038125647731868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039446350858096</v>
+        <v>1.054032277156515</v>
       </c>
       <c r="J7">
-        <v>1.024721589661882</v>
+        <v>0.9921373665518385</v>
       </c>
       <c r="K7">
-        <v>1.054029866945893</v>
+        <v>1.055525398622567</v>
       </c>
       <c r="L7">
-        <v>1.023608735520207</v>
+        <v>0.9917306278345176</v>
       </c>
       <c r="M7">
-        <v>1.057278615642505</v>
+        <v>1.047781860804175</v>
       </c>
       <c r="N7">
-        <v>1.012187090803995</v>
+        <v>1.000633836891271</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01815584849633</v>
+        <v>0.9623963310760476</v>
       </c>
       <c r="D8">
-        <v>1.050653027166143</v>
+        <v>1.041381057341245</v>
       </c>
       <c r="E8">
-        <v>1.019401651147646</v>
+        <v>0.9734707016564736</v>
       </c>
       <c r="F8">
-        <v>1.053564662664255</v>
+        <v>1.032039690680423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039243149281764</v>
+        <v>1.052562634564805</v>
       </c>
       <c r="J8">
-        <v>1.02324483196542</v>
+        <v>0.9851545601786179</v>
       </c>
       <c r="K8">
-        <v>1.053344216708644</v>
+        <v>1.05202821854078</v>
       </c>
       <c r="L8">
-        <v>1.022180371537683</v>
+        <v>0.9850224385100567</v>
       </c>
       <c r="M8">
-        <v>1.05624798339046</v>
+        <v>1.042802472370571</v>
       </c>
       <c r="N8">
-        <v>1.011678806329567</v>
+        <v>0.9981518063724129</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014696190675046</v>
+        <v>0.9442794464909368</v>
       </c>
       <c r="D9">
-        <v>1.049002974042252</v>
+        <v>1.032848645873826</v>
       </c>
       <c r="E9">
-        <v>1.016426415229034</v>
+        <v>0.9585629270445458</v>
       </c>
       <c r="F9">
-        <v>1.051306601009455</v>
+        <v>1.020669802651797</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038872142799558</v>
+        <v>1.049719588538313</v>
       </c>
       <c r="J9">
-        <v>1.020632168221781</v>
+        <v>0.9719658301474696</v>
       </c>
       <c r="K9">
-        <v>1.052123709836175</v>
+        <v>1.045430345807651</v>
       </c>
       <c r="L9">
-        <v>1.019654195121091</v>
+        <v>0.9723660819512944</v>
       </c>
       <c r="M9">
-        <v>1.054420042063081</v>
+        <v>1.033436197547874</v>
       </c>
       <c r="N9">
-        <v>1.010776449159257</v>
+        <v>0.9934499919007422</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012383870351809</v>
+        <v>0.9312356699310939</v>
       </c>
       <c r="D10">
-        <v>1.047898134341725</v>
+        <v>1.026801006971297</v>
       </c>
       <c r="E10">
-        <v>1.014439145923316</v>
+        <v>0.9478860854604318</v>
       </c>
       <c r="F10">
-        <v>1.049796368168493</v>
+        <v>1.01259195342261</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038616104521948</v>
+        <v>1.047636513127499</v>
       </c>
       <c r="J10">
-        <v>1.018883070643067</v>
+        <v>0.9624706623118086</v>
       </c>
       <c r="K10">
-        <v>1.051301754044857</v>
+        <v>1.040702653926129</v>
       </c>
       <c r="L10">
-        <v>1.017963589989448</v>
+        <v>0.963264647411831</v>
       </c>
       <c r="M10">
-        <v>1.053193387465066</v>
+        <v>1.026737518184621</v>
       </c>
       <c r="N10">
-        <v>1.010170278986373</v>
+        <v>0.9900576336703676</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011381114852248</v>
+        <v>0.92531666391815</v>
       </c>
       <c r="D11">
-        <v>1.04741858651621</v>
+        <v>1.024086464023009</v>
       </c>
       <c r="E11">
-        <v>1.013577668297082</v>
+        <v>0.9430571808899308</v>
       </c>
       <c r="F11">
-        <v>1.049141251169549</v>
+        <v>1.008959477655608</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03850317267662</v>
+        <v>1.04668547984247</v>
       </c>
       <c r="J11">
-        <v>1.018123885818309</v>
+        <v>0.9581638943499965</v>
       </c>
       <c r="K11">
-        <v>1.050943869304699</v>
+        <v>1.038568004481765</v>
       </c>
       <c r="L11">
-        <v>1.017229935305094</v>
+        <v>0.9591392489305854</v>
       </c>
       <c r="M11">
-        <v>1.052660311941882</v>
+        <v>1.023714386419748</v>
       </c>
       <c r="N11">
-        <v>1.009906687861509</v>
+        <v>0.988517751333273</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011008411925949</v>
+        <v>0.9230732011583722</v>
       </c>
       <c r="D12">
-        <v>1.047240288903112</v>
+        <v>1.023062721900544</v>
       </c>
       <c r="E12">
-        <v>1.013257524120045</v>
+        <v>0.941229560357231</v>
       </c>
       <c r="F12">
-        <v>1.048897733214643</v>
+        <v>1.007588349887951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038460914289505</v>
+        <v>1.046324411960055</v>
       </c>
       <c r="J12">
-        <v>1.017841612157929</v>
+        <v>0.9565319854008817</v>
       </c>
       <c r="K12">
-        <v>1.050810638184165</v>
+        <v>1.037761024686121</v>
       </c>
       <c r="L12">
-        <v>1.016957175483936</v>
+        <v>0.9575765116176312</v>
       </c>
       <c r="M12">
-        <v>1.052462013031343</v>
+        <v>1.022571598938812</v>
       </c>
       <c r="N12">
-        <v>1.009808608861123</v>
+        <v>0.987934134966562</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011088368738128</v>
+        <v>0.923556535951212</v>
       </c>
       <c r="D13">
-        <v>1.047278542141905</v>
+        <v>1.02328303478499</v>
       </c>
       <c r="E13">
-        <v>1.01332620315867</v>
+        <v>0.9416231808583035</v>
       </c>
       <c r="F13">
-        <v>1.048949976738828</v>
+        <v>1.007883479230343</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03846999290883</v>
+        <v>1.04640222347199</v>
       </c>
       <c r="J13">
-        <v>1.017902173522154</v>
+        <v>0.956883541770058</v>
       </c>
       <c r="K13">
-        <v>1.050839230149782</v>
+        <v>1.037934777711162</v>
       </c>
       <c r="L13">
-        <v>1.017015694697061</v>
+        <v>0.957913145869925</v>
       </c>
       <c r="M13">
-        <v>1.052504562011264</v>
+        <v>1.022817654839845</v>
       </c>
       <c r="N13">
-        <v>1.009829654842074</v>
+        <v>0.9880598662902799</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011350311954206</v>
+        <v>0.9251321603703342</v>
       </c>
       <c r="D14">
-        <v>1.04740385189384</v>
+        <v>1.024002162595117</v>
       </c>
       <c r="E14">
-        <v>1.013551208237666</v>
+        <v>0.942906820842505</v>
       </c>
       <c r="F14">
-        <v>1.049121125546831</v>
+        <v>1.008846595971689</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038499685919529</v>
+        <v>1.046655795977188</v>
       </c>
       <c r="J14">
-        <v>1.018100558708424</v>
+        <v>0.9580296746322441</v>
       </c>
       <c r="K14">
-        <v>1.050932862435901</v>
+        <v>1.038501592196954</v>
       </c>
       <c r="L14">
-        <v>1.017207393981431</v>
+        <v>0.9590107091190855</v>
       </c>
       <c r="M14">
-        <v>1.052643926436049</v>
+        <v>1.023620337469984</v>
       </c>
       <c r="N14">
-        <v>1.009898584090169</v>
+        <v>0.9884697528902414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011511672429045</v>
+        <v>0.9260968726586998</v>
       </c>
       <c r="D15">
-        <v>1.047481036543854</v>
+        <v>1.024443161878111</v>
       </c>
       <c r="E15">
-        <v>1.013689820827011</v>
+        <v>0.9436931170890593</v>
       </c>
       <c r="F15">
-        <v>1.049226552296349</v>
+        <v>1.009437054599106</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038517939618567</v>
+        <v>1.046810981033067</v>
       </c>
       <c r="J15">
-        <v>1.01822275326769</v>
+        <v>0.958731488538762</v>
       </c>
       <c r="K15">
-        <v>1.050990513035749</v>
+        <v>1.038848930426644</v>
       </c>
       <c r="L15">
-        <v>1.017325473229727</v>
+        <v>0.9596828420533152</v>
       </c>
       <c r="M15">
-        <v>1.052729754859872</v>
+        <v>1.024112218340785</v>
       </c>
       <c r="N15">
-        <v>1.009941031153553</v>
+        <v>0.9887207243449201</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012450387470904</v>
+        <v>0.9316224430791421</v>
       </c>
       <c r="D16">
-        <v>1.047929936213691</v>
+        <v>1.026979056679637</v>
       </c>
       <c r="E16">
-        <v>1.014496298240564</v>
+        <v>0.9482019788633377</v>
       </c>
       <c r="F16">
-        <v>1.049839821207071</v>
+        <v>1.012830056468481</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038623555905295</v>
+        <v>1.047698560132607</v>
       </c>
       <c r="J16">
-        <v>1.018933416502375</v>
+        <v>0.9627521397945153</v>
       </c>
       <c r="K16">
-        <v>1.051325464080678</v>
+        <v>1.040842403041629</v>
       </c>
       <c r="L16">
-        <v>1.018012245796871</v>
+        <v>0.963534331040549</v>
       </c>
       <c r="M16">
-        <v>1.053228725220302</v>
+        <v>1.026935451822071</v>
       </c>
       <c r="N16">
-        <v>1.010187748995121</v>
+        <v>0.9901582552636987</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013038809418879</v>
+        <v>0.9350131758029513</v>
       </c>
       <c r="D17">
-        <v>1.048211212459247</v>
+        <v>1.028543395040907</v>
       </c>
       <c r="E17">
-        <v>1.015001914264137</v>
+        <v>0.950973162344508</v>
       </c>
       <c r="F17">
-        <v>1.050224192551607</v>
+        <v>1.014921244937987</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03868925309947</v>
+        <v>1.048241887734302</v>
       </c>
       <c r="J17">
-        <v>1.019378706829916</v>
+        <v>0.9652200136769725</v>
       </c>
       <c r="K17">
-        <v>1.051535041624098</v>
+        <v>1.042068803696144</v>
       </c>
       <c r="L17">
-        <v>1.018442604629894</v>
+        <v>0.9658991181177566</v>
       </c>
       <c r="M17">
-        <v>1.053541199403931</v>
+        <v>1.028672612798212</v>
       </c>
       <c r="N17">
-        <v>1.010342208580642</v>
+        <v>0.9910403332947227</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01338188131379</v>
+        <v>0.9369650993696038</v>
       </c>
       <c r="D18">
-        <v>1.048375165678792</v>
+        <v>1.029446672789335</v>
       </c>
       <c r="E18">
-        <v>1.015296737705221</v>
+        <v>0.9525699194137817</v>
       </c>
       <c r="F18">
-        <v>1.050448276478565</v>
+        <v>1.016128121800927</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038727373873138</v>
+        <v>1.048554101794511</v>
       </c>
       <c r="J18">
-        <v>1.019638262529798</v>
+        <v>0.9666408507232017</v>
       </c>
       <c r="K18">
-        <v>1.051657094378446</v>
+        <v>1.042775765599429</v>
       </c>
       <c r="L18">
-        <v>1.018693470556472</v>
+        <v>0.9672608635748037</v>
       </c>
       <c r="M18">
-        <v>1.053723274587201</v>
+        <v>1.029674151265928</v>
       </c>
       <c r="N18">
-        <v>1.010432194751889</v>
+        <v>0.9915480593319737</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01349883568724</v>
+        <v>0.9376263904229624</v>
       </c>
       <c r="D19">
-        <v>1.048431050759282</v>
+        <v>1.029753140477719</v>
       </c>
       <c r="E19">
-        <v>1.01539724915276</v>
+        <v>0.9531111288133524</v>
       </c>
       <c r="F19">
-        <v>1.050524664124461</v>
+        <v>1.016537497398369</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038740338273051</v>
+        <v>1.048659774131153</v>
       </c>
       <c r="J19">
-        <v>1.019726734881196</v>
+        <v>0.9671222392215226</v>
       </c>
       <c r="K19">
-        <v>1.051698678951648</v>
+        <v>1.043015426753588</v>
       </c>
       <c r="L19">
-        <v>1.018778983218298</v>
+        <v>0.9677222745806809</v>
       </c>
       <c r="M19">
-        <v>1.053785326064474</v>
+        <v>1.030013703437675</v>
       </c>
       <c r="N19">
-        <v>1.010462859536628</v>
+        <v>0.9917200590534756</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01297569233979</v>
+        <v>0.9346520826364472</v>
       </c>
       <c r="D20">
-        <v>1.048181045606488</v>
+        <v>1.028376512372817</v>
       </c>
       <c r="E20">
-        <v>1.014947676200743</v>
+        <v>0.9506778913706814</v>
       </c>
       <c r="F20">
-        <v>1.050182964882818</v>
+        <v>1.014698223336668</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038682225026677</v>
+        <v>1.048184082966176</v>
       </c>
       <c r="J20">
-        <v>1.019330949497237</v>
+        <v>0.9649571806664655</v>
       </c>
       <c r="K20">
-        <v>1.051512575622158</v>
+        <v>1.041938095294385</v>
       </c>
       <c r="L20">
-        <v>1.018396447283995</v>
+        <v>0.9656472369261507</v>
       </c>
       <c r="M20">
-        <v>1.053507693102779</v>
+        <v>1.028487453809132</v>
       </c>
       <c r="N20">
-        <v>1.010325647661355</v>
+        <v>0.9909464020695153</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01127318275996</v>
+        <v>0.9246694536477645</v>
       </c>
       <c r="D21">
-        <v>1.047366956050272</v>
+        <v>1.023790832557821</v>
       </c>
       <c r="E21">
-        <v>1.013484954124866</v>
+        <v>0.9425297845555163</v>
       </c>
       <c r="F21">
-        <v>1.049070731424638</v>
+        <v>1.008563599756043</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038490950639662</v>
+        <v>1.04658134467611</v>
       </c>
       <c r="J21">
-        <v>1.018042146955803</v>
+        <v>0.9576930803126149</v>
       </c>
       <c r="K21">
-        <v>1.050905298258043</v>
+        <v>1.03833507604824</v>
       </c>
       <c r="L21">
-        <v>1.017150950206742</v>
+        <v>0.9586883660915378</v>
       </c>
       <c r="M21">
-        <v>1.052602895130223</v>
+        <v>1.023384528300693</v>
       </c>
       <c r="N21">
-        <v>1.009878290839852</v>
+        <v>0.9883493811906157</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010201384087388</v>
+        <v>0.9181307906891468</v>
       </c>
       <c r="D22">
-        <v>1.046854109238528</v>
+        <v>1.020817691685944</v>
       </c>
       <c r="E22">
-        <v>1.012564394186409</v>
+        <v>0.9372084924943473</v>
       </c>
       <c r="F22">
-        <v>1.048370393505714</v>
+        <v>1.004579053188402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038368892472737</v>
+        <v>1.045528180612288</v>
       </c>
       <c r="J22">
-        <v>1.017230210631401</v>
+        <v>0.9529379346057978</v>
       </c>
       <c r="K22">
-        <v>1.050521761483553</v>
+        <v>1.035987727161646</v>
       </c>
       <c r="L22">
-        <v>1.016366420184726</v>
+        <v>0.9541356644349285</v>
       </c>
       <c r="M22">
-        <v>1.052032328728962</v>
+        <v>1.020060340667672</v>
       </c>
       <c r="N22">
-        <v>1.009596038087464</v>
+        <v>0.986648626091395</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01076969698784</v>
+        <v>0.9216234668226148</v>
       </c>
       <c r="D23">
-        <v>1.047126073550252</v>
+        <v>1.0224027159146</v>
       </c>
       <c r="E23">
-        <v>1.013052486749304</v>
+        <v>0.9400493308231744</v>
       </c>
       <c r="F23">
-        <v>1.048741754313265</v>
+        <v>1.006704017918418</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038433768140426</v>
+        <v>1.046090954911234</v>
       </c>
       <c r="J23">
-        <v>1.017660788563112</v>
+        <v>0.9554775969383734</v>
       </c>
       <c r="K23">
-        <v>1.050725244529458</v>
+        <v>1.037240213766002</v>
       </c>
       <c r="L23">
-        <v>1.016782452475188</v>
+        <v>0.9565669457239111</v>
       </c>
       <c r="M23">
-        <v>1.052334956927773</v>
+        <v>1.021834064509313</v>
       </c>
       <c r="N23">
-        <v>1.009745759322595</v>
+        <v>0.987557026779652</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013004212678254</v>
+        <v>0.9348153246199258</v>
       </c>
       <c r="D24">
-        <v>1.04819467705047</v>
+        <v>1.02845194774262</v>
       </c>
       <c r="E24">
-        <v>1.014972184337161</v>
+        <v>0.9508113720439183</v>
       </c>
       <c r="F24">
-        <v>1.050201594242519</v>
+        <v>1.014799036875645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038685401326194</v>
+        <v>1.048210216943634</v>
       </c>
       <c r="J24">
-        <v>1.019352529519974</v>
+        <v>0.9650760009587638</v>
       </c>
       <c r="K24">
-        <v>1.05152272762969</v>
+        <v>1.041997182613688</v>
       </c>
       <c r="L24">
-        <v>1.018417304281278</v>
+        <v>0.9657611053701078</v>
       </c>
       <c r="M24">
-        <v>1.053522833732275</v>
+        <v>1.02857115529202</v>
       </c>
       <c r="N24">
-        <v>1.01033313116018</v>
+        <v>0.9909888664122599</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015591598819808</v>
+        <v>0.9491206129423525</v>
       </c>
       <c r="D25">
-        <v>1.049430399293832</v>
+        <v>1.035114547470805</v>
       </c>
       <c r="E25">
-        <v>1.017196227450191</v>
+        <v>0.962537745487942</v>
       </c>
       <c r="F25">
-        <v>1.051891215081676</v>
+        <v>1.02369185711691</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038969590313986</v>
+        <v>1.050486281456584</v>
       </c>
       <c r="J25">
-        <v>1.021308872043597</v>
+        <v>0.9754905717227687</v>
       </c>
       <c r="K25">
-        <v>1.052440699353794</v>
+        <v>1.047191157377503</v>
       </c>
       <c r="L25">
-        <v>1.020308394311141</v>
+        <v>0.9757468558238621</v>
       </c>
       <c r="M25">
-        <v>1.054894018354295</v>
+        <v>1.035933192318572</v>
       </c>
       <c r="N25">
-        <v>1.011010533486326</v>
+        <v>0.9947079746792918</v>
       </c>
     </row>
   </sheetData>
